--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.8178453560468</v>
+        <v>11.375006</v>
       </c>
       <c r="H2">
-        <v>10.8178453560468</v>
+        <v>34.125018</v>
       </c>
       <c r="I2">
-        <v>0.04994173210503374</v>
+        <v>0.04381942287440287</v>
       </c>
       <c r="J2">
-        <v>0.04994173210503374</v>
+        <v>0.04381942287440287</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0822119156293</v>
+        <v>36.42014833333334</v>
       </c>
       <c r="N2">
-        <v>17.0822119156293</v>
+        <v>109.260445</v>
       </c>
       <c r="O2">
-        <v>0.07197272160483781</v>
+        <v>0.1297342326344841</v>
       </c>
       <c r="P2">
-        <v>0.07197272160483781</v>
+        <v>0.1297342326344841</v>
       </c>
       <c r="Q2">
-        <v>184.7927268424977</v>
+        <v>414.2794058125567</v>
       </c>
       <c r="R2">
-        <v>184.7927268424977</v>
+        <v>3728.51465231301</v>
       </c>
       <c r="S2">
-        <v>0.003594442381258984</v>
+        <v>0.005684879201096617</v>
       </c>
       <c r="T2">
-        <v>0.003594442381258984</v>
+        <v>0.005684879201096617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.8178453560468</v>
+        <v>11.375006</v>
       </c>
       <c r="H3">
-        <v>10.8178453560468</v>
+        <v>34.125018</v>
       </c>
       <c r="I3">
-        <v>0.04994173210503374</v>
+        <v>0.04381942287440287</v>
       </c>
       <c r="J3">
-        <v>0.04994173210503374</v>
+        <v>0.04381942287440287</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.91573058325446</v>
+        <v>7.933230666666667</v>
       </c>
       <c r="N3">
-        <v>7.91573058325446</v>
+        <v>23.799692</v>
       </c>
       <c r="O3">
-        <v>0.0333514580185142</v>
+        <v>0.02825940145637399</v>
       </c>
       <c r="P3">
-        <v>0.0333514580185142</v>
+        <v>0.02825940145637399</v>
       </c>
       <c r="Q3">
-        <v>85.63114932977687</v>
+        <v>90.24054643271732</v>
       </c>
       <c r="R3">
-        <v>85.63114932977687</v>
+        <v>812.1649178944559</v>
       </c>
       <c r="S3">
-        <v>0.001665629581672915</v>
+        <v>0.001238310662594368</v>
       </c>
       <c r="T3">
-        <v>0.001665629581672915</v>
+        <v>0.001238310662594368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.8178453560468</v>
+        <v>11.375006</v>
       </c>
       <c r="H4">
-        <v>10.8178453560468</v>
+        <v>34.125018</v>
       </c>
       <c r="I4">
-        <v>0.04994173210503374</v>
+        <v>0.04381942287440287</v>
       </c>
       <c r="J4">
-        <v>0.04994173210503374</v>
+        <v>0.04381942287440287</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.1996992091576</v>
+        <v>87.346929</v>
       </c>
       <c r="N4">
-        <v>69.1996992091576</v>
+        <v>262.040787</v>
       </c>
       <c r="O4">
-        <v>0.2915600573812303</v>
+        <v>0.3111433457952811</v>
       </c>
       <c r="P4">
-        <v>0.2915600573812303</v>
+        <v>0.3111433457952812</v>
       </c>
       <c r="Q4">
-        <v>748.591644729621</v>
+        <v>993.5718414565739</v>
       </c>
       <c r="R4">
-        <v>748.591644729621</v>
+        <v>8942.146573109167</v>
       </c>
       <c r="S4">
-        <v>0.01456101427826167</v>
+        <v>0.01363412184395999</v>
       </c>
       <c r="T4">
-        <v>0.01456101427826167</v>
+        <v>0.01363412184395999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.8178453560468</v>
+        <v>11.375006</v>
       </c>
       <c r="H5">
-        <v>10.8178453560468</v>
+        <v>34.125018</v>
       </c>
       <c r="I5">
-        <v>0.04994173210503374</v>
+        <v>0.04381942287440287</v>
       </c>
       <c r="J5">
-        <v>0.04994173210503374</v>
+        <v>0.04381942287440287</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.333755765455</v>
+        <v>102.347857</v>
       </c>
       <c r="N5">
-        <v>100.333755765455</v>
+        <v>307.043571</v>
       </c>
       <c r="O5">
-        <v>0.4227376119053873</v>
+        <v>0.3645789843619686</v>
       </c>
       <c r="P5">
-        <v>0.4227376119053873</v>
+        <v>0.3645789843619686</v>
       </c>
       <c r="Q5">
-        <v>1085.395053862061</v>
+        <v>1164.207487462142</v>
       </c>
       <c r="R5">
-        <v>1085.395053862061</v>
+        <v>10477.86738715928</v>
       </c>
       <c r="S5">
-        <v>0.02111224856450057</v>
+        <v>0.01597564068687741</v>
       </c>
       <c r="T5">
-        <v>0.02111224856450057</v>
+        <v>0.01597564068687742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.8178453560468</v>
+        <v>11.375006</v>
       </c>
       <c r="H6">
-        <v>10.8178453560468</v>
+        <v>34.125018</v>
       </c>
       <c r="I6">
-        <v>0.04994173210503374</v>
+        <v>0.04381942287440287</v>
       </c>
       <c r="J6">
-        <v>0.04994173210503374</v>
+        <v>0.04381942287440287</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.2751494988617</v>
+        <v>35.06224833333334</v>
       </c>
       <c r="N6">
-        <v>34.2751494988617</v>
+        <v>105.186745</v>
       </c>
       <c r="O6">
-        <v>0.1444119652085987</v>
+        <v>0.1248971816460583</v>
       </c>
       <c r="P6">
-        <v>0.1444119652085987</v>
+        <v>0.1248971816460583</v>
       </c>
       <c r="Q6">
-        <v>370.7832668340708</v>
+        <v>398.8332851651567</v>
       </c>
       <c r="R6">
-        <v>370.7832668340708</v>
+        <v>3589.49956648641</v>
       </c>
       <c r="S6">
-        <v>0.007212183679209291</v>
+        <v>0.005472922418369736</v>
       </c>
       <c r="T6">
-        <v>0.007212183679209291</v>
+        <v>0.005472922418369736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.8178453560468</v>
+        <v>11.375006</v>
       </c>
       <c r="H7">
-        <v>10.8178453560468</v>
+        <v>34.125018</v>
       </c>
       <c r="I7">
-        <v>0.04994173210503374</v>
+        <v>0.04381942287440287</v>
       </c>
       <c r="J7">
-        <v>0.04994173210503374</v>
+        <v>0.04381942287440287</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.53631758427534</v>
+        <v>11.618486</v>
       </c>
       <c r="N7">
-        <v>8.53631758427534</v>
+        <v>34.855458</v>
       </c>
       <c r="O7">
-        <v>0.03596618588143168</v>
+        <v>0.0413868541058339</v>
       </c>
       <c r="P7">
-        <v>0.03596618588143168</v>
+        <v>0.0413868541058339</v>
       </c>
       <c r="Q7">
-        <v>92.34456353679361</v>
+        <v>132.160347960916</v>
       </c>
       <c r="R7">
-        <v>92.34456353679361</v>
+        <v>1189.443131648244</v>
       </c>
       <c r="S7">
-        <v>0.001796213620130308</v>
+        <v>0.001813548061504752</v>
       </c>
       <c r="T7">
-        <v>0.001796213620130308</v>
+        <v>0.001813548061504753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.728567230996319</v>
+        <v>0.7422463333333335</v>
       </c>
       <c r="H8">
-        <v>0.728567230996319</v>
+        <v>2.226739</v>
       </c>
       <c r="I8">
-        <v>0.003363508006757181</v>
+        <v>0.00285932209242864</v>
       </c>
       <c r="J8">
-        <v>0.003363508006757181</v>
+        <v>0.00285932209242864</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0822119156293</v>
+        <v>36.42014833333334</v>
       </c>
       <c r="N8">
-        <v>17.0822119156293</v>
+        <v>109.260445</v>
       </c>
       <c r="O8">
-        <v>0.07197272160483781</v>
+        <v>0.1297342326344841</v>
       </c>
       <c r="P8">
-        <v>0.07197272160483781</v>
+        <v>0.1297342326344841</v>
       </c>
       <c r="Q8">
-        <v>12.44553983466237</v>
+        <v>27.03272155987278</v>
       </c>
       <c r="R8">
-        <v>12.44553983466237</v>
+        <v>243.294494038855</v>
       </c>
       <c r="S8">
-        <v>0.0002420808253859775</v>
+        <v>0.0003709519575160571</v>
       </c>
       <c r="T8">
-        <v>0.0002420808253859775</v>
+        <v>0.0003709519575160571</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.728567230996319</v>
+        <v>0.7422463333333335</v>
       </c>
       <c r="H9">
-        <v>0.728567230996319</v>
+        <v>2.226739</v>
       </c>
       <c r="I9">
-        <v>0.003363508006757181</v>
+        <v>0.00285932209242864</v>
       </c>
       <c r="J9">
-        <v>0.003363508006757181</v>
+        <v>0.00285932209242864</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.91573058325446</v>
+        <v>7.933230666666667</v>
       </c>
       <c r="N9">
-        <v>7.91573058325446</v>
+        <v>23.799692</v>
       </c>
       <c r="O9">
-        <v>0.0333514580185142</v>
+        <v>0.02825940145637399</v>
       </c>
       <c r="P9">
-        <v>0.0333514580185142</v>
+        <v>0.02825940145637399</v>
       </c>
       <c r="Q9">
-        <v>5.767141912354579</v>
+        <v>5.88841137382089</v>
       </c>
       <c r="R9">
-        <v>5.767141912354579</v>
+        <v>52.99570236438801</v>
       </c>
       <c r="S9">
-        <v>0.0001121778960822985</v>
+        <v>8.080273090302023E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001121778960822985</v>
+        <v>8.080273090302024E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.728567230996319</v>
+        <v>0.7422463333333335</v>
       </c>
       <c r="H10">
-        <v>0.728567230996319</v>
+        <v>2.226739</v>
       </c>
       <c r="I10">
-        <v>0.003363508006757181</v>
+        <v>0.00285932209242864</v>
       </c>
       <c r="J10">
-        <v>0.003363508006757181</v>
+        <v>0.00285932209242864</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.1996992091576</v>
+        <v>87.346929</v>
       </c>
       <c r="N10">
-        <v>69.1996992091576</v>
+        <v>262.040787</v>
       </c>
       <c r="O10">
-        <v>0.2915600573812303</v>
+        <v>0.3111433457952811</v>
       </c>
       <c r="P10">
-        <v>0.2915600573812303</v>
+        <v>0.3111433457952812</v>
       </c>
       <c r="Q10">
-        <v>50.41663323859412</v>
+        <v>64.83293777817701</v>
       </c>
       <c r="R10">
-        <v>50.41663323859412</v>
+        <v>583.4964400035931</v>
       </c>
       <c r="S10">
-        <v>0.0009806645874523513</v>
+        <v>0.0008896590425446111</v>
       </c>
       <c r="T10">
-        <v>0.0009806645874523513</v>
+        <v>0.0008896590425446113</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.728567230996319</v>
+        <v>0.7422463333333335</v>
       </c>
       <c r="H11">
-        <v>0.728567230996319</v>
+        <v>2.226739</v>
       </c>
       <c r="I11">
-        <v>0.003363508006757181</v>
+        <v>0.00285932209242864</v>
       </c>
       <c r="J11">
-        <v>0.003363508006757181</v>
+        <v>0.00285932209242864</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>100.333755765455</v>
+        <v>102.347857</v>
       </c>
       <c r="N11">
-        <v>100.333755765455</v>
+        <v>307.043571</v>
       </c>
       <c r="O11">
-        <v>0.4227376119053873</v>
+        <v>0.3645789843619686</v>
       </c>
       <c r="P11">
-        <v>0.4227376119053873</v>
+        <v>0.3645789843619686</v>
       </c>
       <c r="Q11">
-        <v>73.09988661349851</v>
+        <v>75.96732158277433</v>
       </c>
       <c r="R11">
-        <v>73.09988661349851</v>
+        <v>683.705894244969</v>
       </c>
       <c r="S11">
-        <v>0.00142188134240118</v>
+        <v>0.001042448744421372</v>
       </c>
       <c r="T11">
-        <v>0.00142188134240118</v>
+        <v>0.001042448744421372</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.728567230996319</v>
+        <v>0.7422463333333335</v>
       </c>
       <c r="H12">
-        <v>0.728567230996319</v>
+        <v>2.226739</v>
       </c>
       <c r="I12">
-        <v>0.003363508006757181</v>
+        <v>0.00285932209242864</v>
       </c>
       <c r="J12">
-        <v>0.003363508006757181</v>
+        <v>0.00285932209242864</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.2751494988617</v>
+        <v>35.06224833333334</v>
       </c>
       <c r="N12">
-        <v>34.2751494988617</v>
+        <v>105.186745</v>
       </c>
       <c r="O12">
-        <v>0.1444119652085987</v>
+        <v>0.1248971816460583</v>
       </c>
       <c r="P12">
-        <v>0.1444119652085987</v>
+        <v>0.1248971816460583</v>
       </c>
       <c r="Q12">
-        <v>24.97175076237054</v>
+        <v>26.02482526383945</v>
       </c>
       <c r="R12">
-        <v>24.97175076237054</v>
+        <v>234.223427374555</v>
       </c>
       <c r="S12">
-        <v>0.0004857308012506613</v>
+        <v>0.0003571212707626472</v>
       </c>
       <c r="T12">
-        <v>0.0004857308012506613</v>
+        <v>0.0003571212707626472</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.728567230996319</v>
+        <v>0.7422463333333335</v>
       </c>
       <c r="H13">
-        <v>0.728567230996319</v>
+        <v>2.226739</v>
       </c>
       <c r="I13">
-        <v>0.003363508006757181</v>
+        <v>0.00285932209242864</v>
       </c>
       <c r="J13">
-        <v>0.003363508006757181</v>
+        <v>0.00285932209242864</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.53631758427534</v>
+        <v>11.618486</v>
       </c>
       <c r="N13">
-        <v>8.53631758427534</v>
+        <v>34.855458</v>
       </c>
       <c r="O13">
-        <v>0.03596618588143168</v>
+        <v>0.0413868541058339</v>
       </c>
       <c r="P13">
-        <v>0.03596618588143168</v>
+        <v>0.0413868541058339</v>
       </c>
       <c r="Q13">
-        <v>6.219281265280672</v>
+        <v>8.623778632384667</v>
       </c>
       <c r="R13">
-        <v>6.219281265280672</v>
+        <v>77.61400769146201</v>
       </c>
       <c r="S13">
-        <v>0.0001209725541847126</v>
+        <v>0.0001183383462809318</v>
       </c>
       <c r="T13">
-        <v>0.0001209725541847126</v>
+        <v>0.0001183383462809318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>58.012191665071</v>
+        <v>98.73397366666666</v>
       </c>
       <c r="H14">
-        <v>58.012191665071</v>
+        <v>296.201921</v>
       </c>
       <c r="I14">
-        <v>0.2678194445942414</v>
+        <v>0.3803484362267435</v>
       </c>
       <c r="J14">
-        <v>0.2678194445942414</v>
+        <v>0.3803484362267435</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.0822119156293</v>
+        <v>36.42014833333334</v>
       </c>
       <c r="N14">
-        <v>17.0822119156293</v>
+        <v>109.260445</v>
       </c>
       <c r="O14">
-        <v>0.07197272160483781</v>
+        <v>0.1297342326344841</v>
       </c>
       <c r="P14">
-        <v>0.07197272160483781</v>
+        <v>0.1297342326344841</v>
       </c>
       <c r="Q14">
-        <v>990.9765517128467</v>
+        <v>3595.905966479427</v>
       </c>
       <c r="R14">
-        <v>990.9765517128467</v>
+        <v>32363.15369831484</v>
       </c>
       <c r="S14">
-        <v>0.01927569432614362</v>
+        <v>0.04934421250760258</v>
       </c>
       <c r="T14">
-        <v>0.01927569432614362</v>
+        <v>0.04934421250760258</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>58.012191665071</v>
+        <v>98.73397366666666</v>
       </c>
       <c r="H15">
-        <v>58.012191665071</v>
+        <v>296.201921</v>
       </c>
       <c r="I15">
-        <v>0.2678194445942414</v>
+        <v>0.3803484362267435</v>
       </c>
       <c r="J15">
-        <v>0.2678194445942414</v>
+        <v>0.3803484362267435</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.91573058325446</v>
+        <v>7.933230666666667</v>
       </c>
       <c r="N15">
-        <v>7.91573058325446</v>
+        <v>23.799692</v>
       </c>
       <c r="O15">
-        <v>0.0333514580185142</v>
+        <v>0.02825940145637399</v>
       </c>
       <c r="P15">
-        <v>0.0333514580185142</v>
+        <v>0.02825940145637399</v>
       </c>
       <c r="Q15">
-        <v>459.208879764822</v>
+        <v>783.279387734259</v>
       </c>
       <c r="R15">
-        <v>459.208879764822</v>
+        <v>7049.514489608331</v>
       </c>
       <c r="S15">
-        <v>0.008932168962926632</v>
+        <v>0.0107484191526356</v>
       </c>
       <c r="T15">
-        <v>0.008932168962926632</v>
+        <v>0.0107484191526356</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>58.012191665071</v>
+        <v>98.73397366666666</v>
       </c>
       <c r="H16">
-        <v>58.012191665071</v>
+        <v>296.201921</v>
       </c>
       <c r="I16">
-        <v>0.2678194445942414</v>
+        <v>0.3803484362267435</v>
       </c>
       <c r="J16">
-        <v>0.2678194445942414</v>
+        <v>0.3803484362267435</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.1996992091576</v>
+        <v>87.346929</v>
       </c>
       <c r="N16">
-        <v>69.1996992091576</v>
+        <v>262.040787</v>
       </c>
       <c r="O16">
-        <v>0.2915600573812303</v>
+        <v>0.3111433457952811</v>
       </c>
       <c r="P16">
-        <v>0.2915600573812303</v>
+        <v>0.3111433457952812</v>
       </c>
       <c r="Q16">
-        <v>4014.426213686913</v>
+        <v>8624.109387750203</v>
       </c>
       <c r="R16">
-        <v>4014.426213686913</v>
+        <v>77616.98448975182</v>
       </c>
       <c r="S16">
-        <v>0.07808545263370624</v>
+        <v>0.1183428850155921</v>
       </c>
       <c r="T16">
-        <v>0.07808545263370624</v>
+        <v>0.1183428850155921</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>58.012191665071</v>
+        <v>98.73397366666666</v>
       </c>
       <c r="H17">
-        <v>58.012191665071</v>
+        <v>296.201921</v>
       </c>
       <c r="I17">
-        <v>0.2678194445942414</v>
+        <v>0.3803484362267435</v>
       </c>
       <c r="J17">
-        <v>0.2678194445942414</v>
+        <v>0.3803484362267435</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>100.333755765455</v>
+        <v>102.347857</v>
       </c>
       <c r="N17">
-        <v>100.333755765455</v>
+        <v>307.043571</v>
       </c>
       <c r="O17">
-        <v>0.4227376119053873</v>
+        <v>0.3645789843619686</v>
       </c>
       <c r="P17">
-        <v>0.4227376119053873</v>
+        <v>0.3645789843619686</v>
       </c>
       <c r="Q17">
-        <v>5820.581069941998</v>
+        <v>10105.21061787776</v>
       </c>
       <c r="R17">
-        <v>5820.581069941998</v>
+        <v>90946.89556089988</v>
       </c>
       <c r="S17">
-        <v>0.1132173524295968</v>
+        <v>0.1386670465832091</v>
       </c>
       <c r="T17">
-        <v>0.1132173524295968</v>
+        <v>0.1386670465832091</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>58.012191665071</v>
+        <v>98.73397366666666</v>
       </c>
       <c r="H18">
-        <v>58.012191665071</v>
+        <v>296.201921</v>
       </c>
       <c r="I18">
-        <v>0.2678194445942414</v>
+        <v>0.3803484362267435</v>
       </c>
       <c r="J18">
-        <v>0.2678194445942414</v>
+        <v>0.3803484362267435</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>34.2751494988617</v>
+        <v>35.06224833333334</v>
       </c>
       <c r="N18">
-        <v>34.2751494988617</v>
+        <v>105.186745</v>
       </c>
       <c r="O18">
-        <v>0.1444119652085987</v>
+        <v>0.1248971816460583</v>
       </c>
       <c r="P18">
-        <v>0.1444119652085987</v>
+        <v>0.1248971816460583</v>
       </c>
       <c r="Q18">
-        <v>1988.376542076927</v>
+        <v>3461.835103637461</v>
       </c>
       <c r="R18">
-        <v>1988.376542076927</v>
+        <v>31156.51593273714</v>
       </c>
       <c r="S18">
-        <v>0.03867633231492982</v>
+        <v>0.04750444772820579</v>
       </c>
       <c r="T18">
-        <v>0.03867633231492982</v>
+        <v>0.04750444772820579</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>58.012191665071</v>
+        <v>98.73397366666666</v>
       </c>
       <c r="H19">
-        <v>58.012191665071</v>
+        <v>296.201921</v>
       </c>
       <c r="I19">
-        <v>0.2678194445942414</v>
+        <v>0.3803484362267435</v>
       </c>
       <c r="J19">
-        <v>0.2678194445942414</v>
+        <v>0.3803484362267435</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.53631758427534</v>
+        <v>11.618486</v>
       </c>
       <c r="N19">
-        <v>8.53631758427534</v>
+        <v>34.855458</v>
       </c>
       <c r="O19">
-        <v>0.03596618588143168</v>
+        <v>0.0413868541058339</v>
       </c>
       <c r="P19">
-        <v>0.03596618588143168</v>
+        <v>0.0413868541058339</v>
       </c>
       <c r="Q19">
-        <v>495.2104918128969</v>
+        <v>1147.139290770535</v>
       </c>
       <c r="R19">
-        <v>495.2104918128969</v>
+        <v>10324.25361693482</v>
       </c>
       <c r="S19">
-        <v>0.009632443926938279</v>
+        <v>0.0157414252394983</v>
       </c>
       <c r="T19">
-        <v>0.009632443926938279</v>
+        <v>0.0157414252394983</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.328697365781</v>
+        <v>139.9562933333333</v>
       </c>
       <c r="H20">
-        <v>139.328697365781</v>
+        <v>419.86888</v>
       </c>
       <c r="I20">
-        <v>0.6432257302047398</v>
+        <v>0.539147320142715</v>
       </c>
       <c r="J20">
-        <v>0.6432257302047398</v>
+        <v>0.5391473201427152</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.0822119156293</v>
+        <v>36.42014833333334</v>
       </c>
       <c r="N20">
-        <v>17.0822119156293</v>
+        <v>109.260445</v>
       </c>
       <c r="O20">
-        <v>0.07197272160483781</v>
+        <v>0.1297342326344841</v>
       </c>
       <c r="P20">
-        <v>0.07197272160483781</v>
+        <v>0.1297342326344841</v>
       </c>
       <c r="Q20">
-        <v>2380.042334330853</v>
+        <v>5097.228963383511</v>
       </c>
       <c r="R20">
-        <v>2380.042334330853</v>
+        <v>45875.0606704516</v>
       </c>
       <c r="S20">
-        <v>0.04629470640909426</v>
+        <v>0.06994586385565367</v>
       </c>
       <c r="T20">
-        <v>0.04629470640909426</v>
+        <v>0.06994586385565368</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.328697365781</v>
+        <v>139.9562933333333</v>
       </c>
       <c r="H21">
-        <v>139.328697365781</v>
+        <v>419.86888</v>
       </c>
       <c r="I21">
-        <v>0.6432257302047398</v>
+        <v>0.539147320142715</v>
       </c>
       <c r="J21">
-        <v>0.6432257302047398</v>
+        <v>0.5391473201427152</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.91573058325446</v>
+        <v>7.933230666666667</v>
       </c>
       <c r="N21">
-        <v>7.91573058325446</v>
+        <v>23.799692</v>
       </c>
       <c r="O21">
-        <v>0.0333514580185142</v>
+        <v>0.02825940145637399</v>
       </c>
       <c r="P21">
-        <v>0.0333514580185142</v>
+        <v>0.02825940145637399</v>
       </c>
       <c r="Q21">
-        <v>1102.888430863318</v>
+        <v>1110.305558264995</v>
       </c>
       <c r="R21">
-        <v>1102.888430863318</v>
+        <v>9992.750024384959</v>
       </c>
       <c r="S21">
-        <v>0.02145251593735152</v>
+        <v>0.01523598056404117</v>
       </c>
       <c r="T21">
-        <v>0.02145251593735152</v>
+        <v>0.01523598056404118</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>139.328697365781</v>
+        <v>139.9562933333333</v>
       </c>
       <c r="H22">
-        <v>139.328697365781</v>
+        <v>419.86888</v>
       </c>
       <c r="I22">
-        <v>0.6432257302047398</v>
+        <v>0.539147320142715</v>
       </c>
       <c r="J22">
-        <v>0.6432257302047398</v>
+        <v>0.5391473201427152</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.1996992091576</v>
+        <v>87.346929</v>
       </c>
       <c r="N22">
-        <v>69.1996992091576</v>
+        <v>262.040787</v>
       </c>
       <c r="O22">
-        <v>0.2915600573812303</v>
+        <v>0.3111433457952811</v>
       </c>
       <c r="P22">
-        <v>0.2915600573812303</v>
+        <v>0.3111433457952812</v>
       </c>
       <c r="Q22">
-        <v>9641.503948915795</v>
+        <v>12224.75241688984</v>
       </c>
       <c r="R22">
-        <v>9641.503948915795</v>
+        <v>110022.7717520086</v>
       </c>
       <c r="S22">
-        <v>0.1875389308075777</v>
+        <v>0.1677521010657639</v>
       </c>
       <c r="T22">
-        <v>0.1875389308075777</v>
+        <v>0.167752101065764</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>139.328697365781</v>
+        <v>139.9562933333333</v>
       </c>
       <c r="H23">
-        <v>139.328697365781</v>
+        <v>419.86888</v>
       </c>
       <c r="I23">
-        <v>0.6432257302047398</v>
+        <v>0.539147320142715</v>
       </c>
       <c r="J23">
-        <v>0.6432257302047398</v>
+        <v>0.5391473201427152</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>100.333755765455</v>
+        <v>102.347857</v>
       </c>
       <c r="N23">
-        <v>100.333755765455</v>
+        <v>307.043571</v>
       </c>
       <c r="O23">
-        <v>0.4227376119053873</v>
+        <v>0.3645789843619686</v>
       </c>
       <c r="P23">
-        <v>0.4227376119053873</v>
+        <v>0.3645789843619686</v>
       </c>
       <c r="Q23">
-        <v>13979.37149261727</v>
+        <v>14324.22669633005</v>
       </c>
       <c r="R23">
-        <v>13979.37149261727</v>
+        <v>128918.0402669705</v>
       </c>
       <c r="S23">
-        <v>0.2719157091028507</v>
+        <v>0.1965617823991082</v>
       </c>
       <c r="T23">
-        <v>0.2719157091028507</v>
+        <v>0.1965617823991082</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>139.328697365781</v>
+        <v>139.9562933333333</v>
       </c>
       <c r="H24">
-        <v>139.328697365781</v>
+        <v>419.86888</v>
       </c>
       <c r="I24">
-        <v>0.6432257302047398</v>
+        <v>0.539147320142715</v>
       </c>
       <c r="J24">
-        <v>0.6432257302047398</v>
+        <v>0.5391473201427152</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.2751494988617</v>
+        <v>35.06224833333334</v>
       </c>
       <c r="N24">
-        <v>34.2751494988617</v>
+        <v>105.186745</v>
       </c>
       <c r="O24">
-        <v>0.1444119652085987</v>
+        <v>0.1248971816460583</v>
       </c>
       <c r="P24">
-        <v>0.1444119652085987</v>
+        <v>0.1248971816460583</v>
       </c>
       <c r="Q24">
-        <v>4775.511931693803</v>
+        <v>4907.182312666177</v>
       </c>
       <c r="R24">
-        <v>4775.511931693803</v>
+        <v>44164.6408139956</v>
       </c>
       <c r="S24">
-        <v>0.0928894917716024</v>
+        <v>0.06733798077785021</v>
       </c>
       <c r="T24">
-        <v>0.0928894917716024</v>
+        <v>0.06733798077785022</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>139.328697365781</v>
+        <v>139.9562933333333</v>
       </c>
       <c r="H25">
-        <v>139.328697365781</v>
+        <v>419.86888</v>
       </c>
       <c r="I25">
-        <v>0.6432257302047398</v>
+        <v>0.539147320142715</v>
       </c>
       <c r="J25">
-        <v>0.6432257302047398</v>
+        <v>0.5391473201427152</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.53631758427534</v>
+        <v>11.618486</v>
       </c>
       <c r="N25">
-        <v>8.53631758427534</v>
+        <v>34.855458</v>
       </c>
       <c r="O25">
-        <v>0.03596618588143168</v>
+        <v>0.0413868541058339</v>
       </c>
       <c r="P25">
-        <v>0.03596618588143168</v>
+        <v>0.0413868541058339</v>
       </c>
       <c r="Q25">
-        <v>1189.354009317694</v>
+        <v>1626.080234705226</v>
       </c>
       <c r="R25">
-        <v>1189.354009317694</v>
+        <v>14634.72211234704</v>
       </c>
       <c r="S25">
-        <v>0.0231343761762633</v>
+        <v>0.02231361148029787</v>
       </c>
       <c r="T25">
-        <v>0.0231343761762633</v>
+        <v>0.02231361148029788</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.88557159852893</v>
+        <v>7.941447000000001</v>
       </c>
       <c r="H26">
-        <v>6.88557159852893</v>
+        <v>23.824341</v>
       </c>
       <c r="I26">
-        <v>0.03178797263648674</v>
+        <v>0.03059247830969567</v>
       </c>
       <c r="J26">
-        <v>0.03178797263648674</v>
+        <v>0.03059247830969567</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.0822119156293</v>
+        <v>36.42014833333334</v>
       </c>
       <c r="N26">
-        <v>17.0822119156293</v>
+        <v>109.260445</v>
       </c>
       <c r="O26">
-        <v>0.07197272160483781</v>
+        <v>0.1297342326344841</v>
       </c>
       <c r="P26">
-        <v>0.07197272160483781</v>
+        <v>0.1297342326344841</v>
       </c>
       <c r="Q26">
-        <v>117.6207932063096</v>
+        <v>289.2286777213051</v>
       </c>
       <c r="R26">
-        <v>117.6207932063096</v>
+        <v>2603.058099491745</v>
       </c>
       <c r="S26">
-        <v>0.002287866904948062</v>
+        <v>0.003968891697895468</v>
       </c>
       <c r="T26">
-        <v>0.002287866904948062</v>
+        <v>0.003968891697895468</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.88557159852893</v>
+        <v>7.941447000000001</v>
       </c>
       <c r="H27">
-        <v>6.88557159852893</v>
+        <v>23.824341</v>
       </c>
       <c r="I27">
-        <v>0.03178797263648674</v>
+        <v>0.03059247830969567</v>
       </c>
       <c r="J27">
-        <v>0.03178797263648674</v>
+        <v>0.03059247830969567</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>7.91573058325446</v>
+        <v>7.933230666666667</v>
       </c>
       <c r="N27">
-        <v>7.91573058325446</v>
+        <v>23.799692</v>
       </c>
       <c r="O27">
-        <v>0.0333514580185142</v>
+        <v>0.02825940145637399</v>
       </c>
       <c r="P27">
-        <v>0.0333514580185142</v>
+        <v>0.02825940145637399</v>
       </c>
       <c r="Q27">
-        <v>54.50432968566375</v>
+        <v>63.00133087810801</v>
       </c>
       <c r="R27">
-        <v>54.50432968566375</v>
+        <v>567.0119779029721</v>
       </c>
       <c r="S27">
-        <v>0.001060175234879465</v>
+        <v>0.0008645251260991036</v>
       </c>
       <c r="T27">
-        <v>0.001060175234879465</v>
+        <v>0.0008645251260991037</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.88557159852893</v>
+        <v>7.941447000000001</v>
       </c>
       <c r="H28">
-        <v>6.88557159852893</v>
+        <v>23.824341</v>
       </c>
       <c r="I28">
-        <v>0.03178797263648674</v>
+        <v>0.03059247830969567</v>
       </c>
       <c r="J28">
-        <v>0.03178797263648674</v>
+        <v>0.03059247830969567</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.1996992091576</v>
+        <v>87.346929</v>
       </c>
       <c r="N28">
-        <v>69.1996992091576</v>
+        <v>262.040787</v>
       </c>
       <c r="O28">
-        <v>0.2915600573812303</v>
+        <v>0.3111433457952811</v>
       </c>
       <c r="P28">
-        <v>0.2915600573812303</v>
+        <v>0.3111433457952812</v>
       </c>
       <c r="Q28">
-        <v>476.4794835013204</v>
+        <v>693.6610072662631</v>
       </c>
       <c r="R28">
-        <v>476.4794835013204</v>
+        <v>6242.949065396368</v>
       </c>
       <c r="S28">
-        <v>0.00926810312592705</v>
+        <v>0.009518646057448279</v>
       </c>
       <c r="T28">
-        <v>0.00926810312592705</v>
+        <v>0.009518646057448281</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.88557159852893</v>
+        <v>7.941447000000001</v>
       </c>
       <c r="H29">
-        <v>6.88557159852893</v>
+        <v>23.824341</v>
       </c>
       <c r="I29">
-        <v>0.03178797263648674</v>
+        <v>0.03059247830969567</v>
       </c>
       <c r="J29">
-        <v>0.03178797263648674</v>
+        <v>0.03059247830969567</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>100.333755765455</v>
+        <v>102.347857</v>
       </c>
       <c r="N29">
-        <v>100.333755765455</v>
+        <v>307.043571</v>
       </c>
       <c r="O29">
-        <v>0.4227376119053873</v>
+        <v>0.3645789843619686</v>
       </c>
       <c r="P29">
-        <v>0.4227376119053873</v>
+        <v>0.3645789843619686</v>
       </c>
       <c r="Q29">
-        <v>690.8552590723552</v>
+        <v>812.7900819290791</v>
       </c>
       <c r="R29">
-        <v>690.8552590723552</v>
+        <v>7315.110737361711</v>
       </c>
       <c r="S29">
-        <v>0.0134379716396622</v>
+        <v>0.0111533746712644</v>
       </c>
       <c r="T29">
-        <v>0.0134379716396622</v>
+        <v>0.0111533746712644</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.88557159852893</v>
+        <v>7.941447000000001</v>
       </c>
       <c r="H30">
-        <v>6.88557159852893</v>
+        <v>23.824341</v>
       </c>
       <c r="I30">
-        <v>0.03178797263648674</v>
+        <v>0.03059247830969567</v>
       </c>
       <c r="J30">
-        <v>0.03178797263648674</v>
+        <v>0.03059247830969567</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>34.2751494988617</v>
+        <v>35.06224833333334</v>
       </c>
       <c r="N30">
-        <v>34.2751494988617</v>
+        <v>105.186745</v>
       </c>
       <c r="O30">
-        <v>0.1444119652085987</v>
+        <v>0.1248971816460583</v>
       </c>
       <c r="P30">
-        <v>0.1444119652085987</v>
+        <v>0.1248971816460583</v>
       </c>
       <c r="Q30">
-        <v>236.0039959246952</v>
+        <v>278.4449868400051</v>
       </c>
       <c r="R30">
-        <v>236.0039959246952</v>
+        <v>2506.004881560045</v>
       </c>
       <c r="S30">
-        <v>0.004590563598432211</v>
+        <v>0.003820914320449158</v>
       </c>
       <c r="T30">
-        <v>0.004590563598432211</v>
+        <v>0.003820914320449158</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.88557159852893</v>
+        <v>7.941447000000001</v>
       </c>
       <c r="H31">
-        <v>6.88557159852893</v>
+        <v>23.824341</v>
       </c>
       <c r="I31">
-        <v>0.03178797263648674</v>
+        <v>0.03059247830969567</v>
       </c>
       <c r="J31">
-        <v>0.03178797263648674</v>
+        <v>0.03059247830969567</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.53631758427534</v>
+        <v>11.618486</v>
       </c>
       <c r="N31">
-        <v>8.53631758427534</v>
+        <v>34.855458</v>
       </c>
       <c r="O31">
-        <v>0.03596618588143168</v>
+        <v>0.0413868541058339</v>
       </c>
       <c r="P31">
-        <v>0.03596618588143168</v>
+        <v>0.0413868541058339</v>
       </c>
       <c r="Q31">
-        <v>58.77742591430936</v>
+        <v>92.26759078924201</v>
       </c>
       <c r="R31">
-        <v>58.77742591430936</v>
+        <v>830.4083171031781</v>
       </c>
       <c r="S31">
-        <v>0.001143292132637746</v>
+        <v>0.001266126436539263</v>
       </c>
       <c r="T31">
-        <v>0.001143292132637746</v>
+        <v>0.001266126436539263</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.8364613035623329</v>
+        <v>0.8392539999999999</v>
       </c>
       <c r="H32">
-        <v>0.8364613035623329</v>
+        <v>2.517762</v>
       </c>
       <c r="I32">
-        <v>0.003861612452741057</v>
+        <v>0.003233020354014241</v>
       </c>
       <c r="J32">
-        <v>0.003861612452741057</v>
+        <v>0.003233020354014241</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>17.0822119156293</v>
+        <v>36.42014833333334</v>
       </c>
       <c r="N32">
-        <v>17.0822119156293</v>
+        <v>109.260445</v>
       </c>
       <c r="O32">
-        <v>0.07197272160483781</v>
+        <v>0.1297342326344841</v>
       </c>
       <c r="P32">
-        <v>0.07197272160483781</v>
+        <v>0.1297342326344841</v>
       </c>
       <c r="Q32">
-        <v>14.2886092466753</v>
+        <v>30.56575516934333</v>
       </c>
       <c r="R32">
-        <v>14.2886092466753</v>
+        <v>275.09179652409</v>
       </c>
       <c r="S32">
-        <v>0.000277930758006907</v>
+        <v>0.0004194334147197057</v>
       </c>
       <c r="T32">
-        <v>0.000277930758006907</v>
+        <v>0.0004194334147197057</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.8364613035623329</v>
+        <v>0.8392539999999999</v>
       </c>
       <c r="H33">
-        <v>0.8364613035623329</v>
+        <v>2.517762</v>
       </c>
       <c r="I33">
-        <v>0.003861612452741057</v>
+        <v>0.003233020354014241</v>
       </c>
       <c r="J33">
-        <v>0.003861612452741057</v>
+        <v>0.003233020354014241</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>7.91573058325446</v>
+        <v>7.933230666666667</v>
       </c>
       <c r="N33">
-        <v>7.91573058325446</v>
+        <v>23.799692</v>
       </c>
       <c r="O33">
-        <v>0.0333514580185142</v>
+        <v>0.02825940145637399</v>
       </c>
       <c r="P33">
-        <v>0.0333514580185142</v>
+        <v>0.02825940145637399</v>
       </c>
       <c r="Q33">
-        <v>6.621202322317251</v>
+        <v>6.657995569922666</v>
       </c>
       <c r="R33">
-        <v>6.621202322317251</v>
+        <v>59.921960129304</v>
       </c>
       <c r="S33">
-        <v>0.000128790405601365</v>
+        <v>9.136322010071677E-05</v>
       </c>
       <c r="T33">
-        <v>0.000128790405601365</v>
+        <v>9.136322010071679E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8364613035623329</v>
+        <v>0.8392539999999999</v>
       </c>
       <c r="H34">
-        <v>0.8364613035623329</v>
+        <v>2.517762</v>
       </c>
       <c r="I34">
-        <v>0.003861612452741057</v>
+        <v>0.003233020354014241</v>
       </c>
       <c r="J34">
-        <v>0.003861612452741057</v>
+        <v>0.003233020354014241</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.1996992091576</v>
+        <v>87.346929</v>
       </c>
       <c r="N34">
-        <v>69.1996992091576</v>
+        <v>262.040787</v>
       </c>
       <c r="O34">
-        <v>0.2915600573812303</v>
+        <v>0.3111433457952811</v>
       </c>
       <c r="P34">
-        <v>0.2915600573812303</v>
+        <v>0.3111433457952812</v>
       </c>
       <c r="Q34">
-        <v>57.88287060661331</v>
+        <v>73.306259550966</v>
       </c>
       <c r="R34">
-        <v>57.88287060661331</v>
+        <v>659.756335958694</v>
       </c>
       <c r="S34">
-        <v>0.001125891948305256</v>
+        <v>0.001005932769972235</v>
       </c>
       <c r="T34">
-        <v>0.001125891948305256</v>
+        <v>0.001005932769972235</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.8364613035623329</v>
+        <v>0.8392539999999999</v>
       </c>
       <c r="H35">
-        <v>0.8364613035623329</v>
+        <v>2.517762</v>
       </c>
       <c r="I35">
-        <v>0.003861612452741057</v>
+        <v>0.003233020354014241</v>
       </c>
       <c r="J35">
-        <v>0.003861612452741057</v>
+        <v>0.003233020354014241</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>100.333755765455</v>
+        <v>102.347857</v>
       </c>
       <c r="N35">
-        <v>100.333755765455</v>
+        <v>307.043571</v>
       </c>
       <c r="O35">
-        <v>0.4227376119053873</v>
+        <v>0.3645789843619686</v>
       </c>
       <c r="P35">
-        <v>0.4227376119053873</v>
+        <v>0.3645789843619686</v>
       </c>
       <c r="Q35">
-        <v>83.92530413887722</v>
+        <v>85.89584837867798</v>
       </c>
       <c r="R35">
-        <v>83.92530413887722</v>
+        <v>773.0626354081019</v>
       </c>
       <c r="S35">
-        <v>0.00163244882637586</v>
+        <v>0.001178691277088084</v>
       </c>
       <c r="T35">
-        <v>0.00163244882637586</v>
+        <v>0.001178691277088084</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.8364613035623329</v>
+        <v>0.8392539999999999</v>
       </c>
       <c r="H36">
-        <v>0.8364613035623329</v>
+        <v>2.517762</v>
       </c>
       <c r="I36">
-        <v>0.003861612452741057</v>
+        <v>0.003233020354014241</v>
       </c>
       <c r="J36">
-        <v>0.003861612452741057</v>
+        <v>0.003233020354014241</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>34.2751494988617</v>
+        <v>35.06224833333334</v>
       </c>
       <c r="N36">
-        <v>34.2751494988617</v>
+        <v>105.186745</v>
       </c>
       <c r="O36">
-        <v>0.1444119652085987</v>
+        <v>0.1248971816460583</v>
       </c>
       <c r="P36">
-        <v>0.1444119652085987</v>
+        <v>0.1248971816460583</v>
       </c>
       <c r="Q36">
-        <v>28.6698362296117</v>
+        <v>29.42613216274333</v>
       </c>
       <c r="R36">
-        <v>28.6698362296117</v>
+        <v>264.83518946469</v>
       </c>
       <c r="S36">
-        <v>0.0005576630431743332</v>
+        <v>0.0004037951304207202</v>
       </c>
       <c r="T36">
-        <v>0.0005576630431743332</v>
+        <v>0.0004037951304207202</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.8364613035623329</v>
+        <v>0.8392539999999999</v>
       </c>
       <c r="H37">
-        <v>0.8364613035623329</v>
+        <v>2.517762</v>
       </c>
       <c r="I37">
-        <v>0.003861612452741057</v>
+        <v>0.003233020354014241</v>
       </c>
       <c r="J37">
-        <v>0.003861612452741057</v>
+        <v>0.003233020354014241</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.53631758427534</v>
+        <v>11.618486</v>
       </c>
       <c r="N37">
-        <v>8.53631758427534</v>
+        <v>34.855458</v>
       </c>
       <c r="O37">
-        <v>0.03596618588143168</v>
+        <v>0.0413868541058339</v>
       </c>
       <c r="P37">
-        <v>0.03596618588143168</v>
+        <v>0.0413868541058339</v>
       </c>
       <c r="Q37">
-        <v>7.140299334165015</v>
+        <v>9.750860849443999</v>
       </c>
       <c r="R37">
-        <v>7.140299334165015</v>
+        <v>87.75774764499599</v>
       </c>
       <c r="S37">
-        <v>0.0001388874712773362</v>
+        <v>0.0001338045417127788</v>
       </c>
       <c r="T37">
-        <v>0.0001388874712773362</v>
+        <v>0.0001338045417127789</v>
       </c>
     </row>
   </sheetData>
